--- a/data/us-gdp-growth-rate.xlsx
+++ b/data/us-gdp-growth-rate.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C311"/>
+  <dimension ref="A1:C312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,23 +464,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-03-31</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>4.73</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B6-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>4.96</v>
       </c>
       <c r="C3">
         <f>(B3/B7-1)*100</f>
@@ -489,10 +491,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.03</v>
+        <v>4.96</v>
       </c>
       <c r="C4">
         <f>(B4/B8-1)*100</f>
@@ -501,10 +503,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.69</v>
+        <v>5.03</v>
       </c>
       <c r="C5">
         <f>(B5/B9-1)*100</f>
@@ -513,10 +515,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.37</v>
+        <v>5.69</v>
       </c>
       <c r="C6">
         <f>(B6/B10-1)*100</f>
@@ -525,10 +527,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.850000000000001</v>
+        <v>5.37</v>
       </c>
       <c r="C7">
         <f>(B7/B11-1)*100</f>
@@ -537,10 +539,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6.45</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="C8">
         <f>(B8/B12-1)*100</f>
@@ -549,10 +551,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.39</v>
+        <v>6.45</v>
       </c>
       <c r="C9">
         <f>(B9/B13-1)*100</f>
@@ -561,10 +563,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.73</v>
+        <v>6.39</v>
       </c>
       <c r="C10">
         <f>(B10/B14-1)*100</f>
@@ -573,10 +575,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>7.9</v>
+        <v>7.73</v>
       </c>
       <c r="C11">
         <f>(B11/B15-1)*100</f>
@@ -585,10 +587,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>9.82</v>
+        <v>7.9</v>
       </c>
       <c r="C12">
         <f>(B12/B16-1)*100</f>
@@ -597,10 +599,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>10.43</v>
+        <v>9.82</v>
       </c>
       <c r="C13">
         <f>(B13/B17-1)*100</f>
@@ -609,10 +611,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>11.29</v>
+        <v>10.43</v>
       </c>
       <c r="C14">
         <f>(B14/B18-1)*100</f>
@@ -621,10 +623,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>12.27</v>
+        <v>11.29</v>
       </c>
       <c r="C15">
         <f>(B15/B19-1)*100</f>
@@ -633,10 +635,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>10.32</v>
+        <v>12.27</v>
       </c>
       <c r="C16">
         <f>(B16/B20-1)*100</f>
@@ -645,10 +647,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>17.22</v>
+        <v>10.32</v>
       </c>
       <c r="C17">
         <f>(B17/B21-1)*100</f>
@@ -657,10 +659,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>4.279999999999999</v>
+        <v>17.22</v>
       </c>
       <c r="C18">
         <f>(B18/B22-1)*100</f>
@@ -669,10 +671,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>0.62</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="C19">
         <f>(B19/B23-1)*100</f>
@@ -681,10 +683,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>-0.15</v>
+        <v>0.62</v>
       </c>
       <c r="C20">
         <f>(B20/B24-1)*100</f>
@@ -693,10 +695,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>-6.83</v>
+        <v>-0.15</v>
       </c>
       <c r="C21">
         <f>(B21/B25-1)*100</f>
@@ -705,10 +707,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2.92</v>
+        <v>-6.83</v>
       </c>
       <c r="C22">
         <f>(B22/B26-1)*100</f>
@@ -717,10 +719,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>4.850000000000001</v>
+        <v>2.92</v>
       </c>
       <c r="C23">
         <f>(B23/B27-1)*100</f>
@@ -729,10 +731,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>4.42</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="C24">
         <f>(B24/B28-1)*100</f>
@@ -741,10 +743,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>3.97</v>
+        <v>4.42</v>
       </c>
       <c r="C25">
         <f>(B25/B29-1)*100</f>
@@ -753,10 +755,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>3.85</v>
+        <v>3.97</v>
       </c>
       <c r="C26">
         <f>(B26/B30-1)*100</f>
@@ -765,10 +767,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>4.399999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="C27">
         <f>(B27/B31-1)*100</f>
@@ -777,10 +779,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>5.62</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C28">
         <f>(B28/B32-1)*100</f>
@@ -789,10 +791,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>5.88</v>
+        <v>5.62</v>
       </c>
       <c r="C29">
         <f>(B29/B33-1)*100</f>
@@ -801,10 +803,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>5.44</v>
+        <v>5.88</v>
       </c>
       <c r="C30">
         <f>(B30/B34-1)*100</f>
@@ -813,10 +815,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>4.96</v>
+        <v>5.44</v>
       </c>
       <c r="C31">
         <f>(B31/B35-1)*100</f>
@@ -825,10 +827,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>4.23</v>
+        <v>4.96</v>
       </c>
       <c r="C32">
         <f>(B32/B36-1)*100</f>
@@ -837,10 +839,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>3.88</v>
+        <v>4.23</v>
       </c>
       <c r="C33">
         <f>(B33/B37-1)*100</f>
@@ -849,10 +851,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>4.07</v>
+        <v>3.88</v>
       </c>
       <c r="C34">
         <f>(B34/B38-1)*100</f>
@@ -861,10 +863,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>3.55</v>
+        <v>4.07</v>
       </c>
       <c r="C35">
         <f>(B35/B39-1)*100</f>
@@ -873,10 +875,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>2.67</v>
+        <v>3.55</v>
       </c>
       <c r="C36">
         <f>(B36/B40-1)*100</f>
@@ -885,10 +887,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>2.36</v>
+        <v>2.67</v>
       </c>
       <c r="C37">
         <f>(B37/B41-1)*100</f>
@@ -897,10 +899,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -909,10 +911,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>2.92</v>
+        <v>2.56</v>
       </c>
       <c r="C39">
         <f>(B39/B43-1)*100</f>
@@ -921,10 +923,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>42277</v>
+        <v>42369</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>3.36</v>
+        <v>2.92</v>
       </c>
       <c r="C40">
         <f>(B40/B44-1)*100</f>
@@ -933,10 +935,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>42185</v>
+        <v>42277</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>4.35</v>
+        <v>3.36</v>
       </c>
       <c r="C41">
         <f>(B41/B45-1)*100</f>
@@ -945,10 +947,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42094</v>
+        <v>42185</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>5.029999999999999</v>
+        <v>4.35</v>
       </c>
       <c r="C42">
         <f>(B42/B46-1)*100</f>
@@ -957,10 +959,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>4.19</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="C43">
         <f>(B43/B47-1)*100</f>
@@ -969,10 +971,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>41912</v>
+        <v>42004</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>5.02</v>
+        <v>4.19</v>
       </c>
       <c r="C44">
         <f>(B44/B48-1)*100</f>
@@ -981,10 +983,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>41820</v>
+        <v>41912</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>4.72</v>
+        <v>5.02</v>
       </c>
       <c r="C45">
         <f>(B45/B49-1)*100</f>
@@ -993,10 +995,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>41729</v>
+        <v>41820</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>3.3</v>
+        <v>4.72</v>
       </c>
       <c r="C46">
         <f>(B46/B50-1)*100</f>
@@ -1005,10 +1007,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>41639</v>
+        <v>41729</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="C47">
         <f>(B47/B51-1)*100</f>
@@ -1017,10 +1019,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>41547</v>
+        <v>41639</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>3.89</v>
+        <v>4.7</v>
       </c>
       <c r="C48">
         <f>(B48/B52-1)*100</f>
@@ -1029,10 +1031,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>41455</v>
+        <v>41547</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>3.22</v>
+        <v>3.89</v>
       </c>
       <c r="C49">
         <f>(B49/B53-1)*100</f>
@@ -1041,10 +1043,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>41364</v>
+        <v>41455</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>3.61</v>
+        <v>3.22</v>
       </c>
       <c r="C50">
         <f>(B50/B54-1)*100</f>
@@ -1053,10 +1055,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>41274</v>
+        <v>41364</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="C51">
         <f>(B51/B55-1)*100</f>
@@ -1065,10 +1067,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>41182</v>
+        <v>41274</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>4.29</v>
+        <v>3.65</v>
       </c>
       <c r="C52">
         <f>(B52/B56-1)*100</f>
@@ -1077,10 +1079,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>41090</v>
+        <v>41182</v>
       </c>
       <c r="B53" s="4" t="n">
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
       <c r="C53">
         <f>(B53/B57-1)*100</f>
@@ -1089,10 +1091,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>40999</v>
+        <v>41090</v>
       </c>
       <c r="B54" s="4" t="n">
-        <v>4.67</v>
+        <v>4.18</v>
       </c>
       <c r="C54">
         <f>(B54/B58-1)*100</f>
@@ -1101,10 +1103,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>40908</v>
+        <v>40999</v>
       </c>
       <c r="B55" s="4" t="n">
-        <v>3.48</v>
+        <v>4.67</v>
       </c>
       <c r="C55">
         <f>(B55/B59-1)*100</f>
@@ -1113,10 +1115,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>40816</v>
+        <v>40908</v>
       </c>
       <c r="B56" s="4" t="n">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="C56">
         <f>(B56/B60-1)*100</f>
@@ -1125,10 +1127,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>40724</v>
+        <v>40816</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>3.85</v>
+        <v>3.34</v>
       </c>
       <c r="C57">
         <f>(B57/B61-1)*100</f>
@@ -1137,10 +1139,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>40633</v>
+        <v>40724</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>3.97</v>
+        <v>3.85</v>
       </c>
       <c r="C58">
         <f>(B58/B62-1)*100</f>
@@ -1149,10 +1151,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4.49</v>
+        <v>3.97</v>
       </c>
       <c r="C59">
         <f>(B59/B63-1)*100</f>
@@ -1161,10 +1163,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>40451</v>
+        <v>40543</v>
       </c>
       <c r="B60" s="4" t="n">
-        <v>4.79</v>
+        <v>4.49</v>
       </c>
       <c r="C60">
         <f>(B60/B64-1)*100</f>
@@ -1173,10 +1175,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>40359</v>
+        <v>40451</v>
       </c>
       <c r="B61" s="4" t="n">
-        <v>4.17</v>
+        <v>4.79</v>
       </c>
       <c r="C61">
         <f>(B61/B65-1)*100</f>
@@ -1185,10 +1187,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>40268</v>
+        <v>40359</v>
       </c>
       <c r="B62" s="4" t="n">
-        <v>2.31</v>
+        <v>4.17</v>
       </c>
       <c r="C62">
         <f>(B62/B66-1)*100</f>
@@ -1197,10 +1199,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>40178</v>
+        <v>40268</v>
       </c>
       <c r="B63" s="4" t="n">
-        <v>0.29</v>
+        <v>2.31</v>
       </c>
       <c r="C63">
         <f>(B63/B67-1)*100</f>
@@ -1209,10 +1211,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>40086</v>
+        <v>40178</v>
       </c>
       <c r="B64" s="4" t="n">
-        <v>-3.02</v>
+        <v>0.29</v>
       </c>
       <c r="C64">
         <f>(B64/B68-1)*100</f>
@@ -1221,10 +1223,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>39994</v>
+        <v>40086</v>
       </c>
       <c r="B65" s="4" t="n">
-        <v>-3.26</v>
+        <v>-3.02</v>
       </c>
       <c r="C65">
         <f>(B65/B69-1)*100</f>
@@ -1233,10 +1235,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>39903</v>
+        <v>39994</v>
       </c>
       <c r="B66" s="4" t="n">
-        <v>-1.87</v>
+        <v>-3.26</v>
       </c>
       <c r="C66">
         <f>(B66/B70-1)*100</f>
@@ -1245,10 +1247,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>39813</v>
+        <v>39903</v>
       </c>
       <c r="B67" s="4" t="n">
-        <v>-0.73</v>
+        <v>-1.87</v>
       </c>
       <c r="C67">
         <f>(B67/B71-1)*100</f>
@@ -1257,10 +1259,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>39721</v>
+        <v>39813</v>
       </c>
       <c r="B68" s="4" t="n">
-        <v>2.3</v>
+        <v>-0.73</v>
       </c>
       <c r="C68">
         <f>(B68/B72-1)*100</f>
@@ -1269,10 +1271,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>39629</v>
+        <v>39721</v>
       </c>
       <c r="B69" s="4" t="n">
-        <v>3.22</v>
+        <v>2.3</v>
       </c>
       <c r="C69">
         <f>(B69/B73-1)*100</f>
@@ -1281,10 +1283,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>39538</v>
+        <v>39629</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>3.45</v>
+        <v>3.22</v>
       </c>
       <c r="C70">
         <f>(B70/B74-1)*100</f>
@@ -1293,10 +1295,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>39447</v>
+        <v>39538</v>
       </c>
       <c r="B71" s="4" t="n">
-        <v>4.81</v>
+        <v>3.45</v>
       </c>
       <c r="C71">
         <f>(B71/B75-1)*100</f>
@@ -1305,10 +1307,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>39355</v>
+        <v>39447</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>5</v>
+        <v>4.81</v>
       </c>
       <c r="C72">
         <f>(B72/B76-1)*100</f>
@@ -1317,10 +1319,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>39263</v>
+        <v>39355</v>
       </c>
       <c r="B73" s="4" t="n">
-        <v>4.72</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <f>(B73/B77-1)*100</f>
@@ -1329,10 +1331,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>39172</v>
+        <v>39263</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>4.53</v>
+        <v>4.72</v>
       </c>
       <c r="C74">
         <f>(B74/B78-1)*100</f>
@@ -1341,10 +1343,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>39082</v>
+        <v>39172</v>
       </c>
       <c r="B75" s="4" t="n">
-        <v>5.37</v>
+        <v>4.53</v>
       </c>
       <c r="C75">
         <f>(B75/B79-1)*100</f>
@@ -1353,10 +1355,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>38990</v>
+        <v>39082</v>
       </c>
       <c r="B76" s="4" t="n">
-        <v>5.54</v>
+        <v>5.37</v>
       </c>
       <c r="C76">
         <f>(B76/B80-1)*100</f>
@@ -1365,10 +1367,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>38898</v>
+        <v>38990</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>6.43</v>
+        <v>5.54</v>
       </c>
       <c r="C77">
         <f>(B77/B81-1)*100</f>
@@ -1377,10 +1379,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>38807</v>
+        <v>38898</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>6.52</v>
+        <v>6.43</v>
       </c>
       <c r="C78">
         <f>(B78/B82-1)*100</f>
@@ -1389,10 +1391,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>38717</v>
+        <v>38807</v>
       </c>
       <c r="B79" s="4" t="n">
-        <v>6.36</v>
+        <v>6.52</v>
       </c>
       <c r="C79">
         <f>(B79/B83-1)*100</f>
@@ -1401,10 +1403,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>38625</v>
+        <v>38717</v>
       </c>
       <c r="B80" s="4" t="n">
-        <v>6.800000000000001</v>
+        <v>6.36</v>
       </c>
       <c r="C80">
         <f>(B80/B84-1)*100</f>
@@ -1413,10 +1415,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>38533</v>
+        <v>38625</v>
       </c>
       <c r="B81" s="4" t="n">
-        <v>6.69</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="C81">
         <f>(B81/B85-1)*100</f>
@@ -1425,10 +1427,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>38442</v>
+        <v>38533</v>
       </c>
       <c r="B82" s="4" t="n">
-        <v>7.08</v>
+        <v>6.69</v>
       </c>
       <c r="C82">
         <f>(B82/B86-1)*100</f>
@@ -1437,10 +1439,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>38352</v>
+        <v>38442</v>
       </c>
       <c r="B83" s="4" t="n">
-        <v>6.41</v>
+        <v>7.08</v>
       </c>
       <c r="C83">
         <f>(B83/B87-1)*100</f>
@@ -1449,10 +1451,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>38260</v>
+        <v>38352</v>
       </c>
       <c r="B84" s="4" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="C84">
         <f>(B84/B88-1)*100</f>
@@ -1461,10 +1463,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>38168</v>
+        <v>38260</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>7.07</v>
+        <v>6.39</v>
       </c>
       <c r="C85">
         <f>(B85/B89-1)*100</f>
@@ -1473,10 +1475,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>6.710000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="C86">
         <f>(B86/B90-1)*100</f>
@@ -1485,10 +1487,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>37986</v>
+        <v>38077</v>
       </c>
       <c r="B87" s="4" t="n">
-        <v>6.43</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="C87">
         <f>(B87/B91-1)*100</f>
@@ -1497,10 +1499,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>37894</v>
+        <v>37986</v>
       </c>
       <c r="B88" s="4" t="n">
-        <v>5.3</v>
+        <v>6.43</v>
       </c>
       <c r="C88">
         <f>(B88/B92-1)*100</f>
@@ -1509,10 +1511,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>37802</v>
+        <v>37894</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>3.91</v>
+        <v>5.3</v>
       </c>
       <c r="C89">
         <f>(B89/B93-1)*100</f>
@@ -1521,10 +1523,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>37711</v>
+        <v>37802</v>
       </c>
       <c r="B90" s="4" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="C90">
         <f>(B90/B94-1)*100</f>
@@ -1533,10 +1535,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>37621</v>
+        <v>37711</v>
       </c>
       <c r="B91" s="4" t="n">
-        <v>3.76</v>
+        <v>3.62</v>
       </c>
       <c r="C91">
         <f>(B91/B95-1)*100</f>
@@ -1545,10 +1547,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>37529</v>
+        <v>37621</v>
       </c>
       <c r="B92" s="4" t="n">
-        <v>3.64</v>
+        <v>3.76</v>
       </c>
       <c r="C92">
         <f>(B92/B96-1)*100</f>
@@ -1557,10 +1559,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>37437</v>
+        <v>37529</v>
       </c>
       <c r="B93" s="4" t="n">
-        <v>2.72</v>
+        <v>3.64</v>
       </c>
       <c r="C93">
         <f>(B93/B97-1)*100</f>
@@ -1569,10 +1571,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>37346</v>
+        <v>37437</v>
       </c>
       <c r="B94" s="4" t="n">
-        <v>2.99</v>
+        <v>2.72</v>
       </c>
       <c r="C94">
         <f>(B94/B98-1)*100</f>
@@ -1581,10 +1583,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>37256</v>
+        <v>37346</v>
       </c>
       <c r="B95" s="4" t="n">
-        <v>2.15</v>
+        <v>2.99</v>
       </c>
       <c r="C95">
         <f>(B95/B99-1)*100</f>
@@ -1593,10 +1595,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>37164</v>
+        <v>37256</v>
       </c>
       <c r="B96" s="4" t="n">
-        <v>2.71</v>
+        <v>2.15</v>
       </c>
       <c r="C96">
         <f>(B96/B100-1)*100</f>
@@ -1605,10 +1607,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>37072</v>
+        <v>37164</v>
       </c>
       <c r="B97" s="4" t="n">
-        <v>3.43</v>
+        <v>2.71</v>
       </c>
       <c r="C97">
         <f>(B97/B101-1)*100</f>
@@ -1617,10 +1619,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>36981</v>
+        <v>37072</v>
       </c>
       <c r="B98" s="4" t="n">
-        <v>4.68</v>
+        <v>3.43</v>
       </c>
       <c r="C98">
         <f>(B98/B102-1)*100</f>
@@ -1629,10 +1631,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>36891</v>
+        <v>36981</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>5.41</v>
+        <v>4.68</v>
       </c>
       <c r="C99">
         <f>(B99/B103-1)*100</f>
@@ -1641,10 +1643,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>36799</v>
+        <v>36891</v>
       </c>
       <c r="B100" s="4" t="n">
-        <v>6.52</v>
+        <v>5.41</v>
       </c>
       <c r="C100">
         <f>(B100/B104-1)*100</f>
@@ -1653,10 +1655,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>36707</v>
+        <v>36799</v>
       </c>
       <c r="B101" s="4" t="n">
-        <v>7.57</v>
+        <v>6.52</v>
       </c>
       <c r="C101">
         <f>(B101/B105-1)*100</f>
@@ -1665,10 +1667,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>36616</v>
+        <v>36707</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>6.27</v>
+        <v>7.57</v>
       </c>
       <c r="C102">
         <f>(B102/B106-1)*100</f>
@@ -1677,10 +1679,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>36525</v>
+        <v>36616</v>
       </c>
       <c r="B103" s="4" t="n">
-        <v>6.52</v>
+        <v>6.27</v>
       </c>
       <c r="C103">
         <f>(B103/B107-1)*100</f>
@@ -1689,10 +1691,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>36433</v>
+        <v>36525</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>6.2</v>
+        <v>6.52</v>
       </c>
       <c r="C104">
         <f>(B104/B108-1)*100</f>
@@ -1701,7 +1703,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>36341</v>
+        <v>36433</v>
       </c>
       <c r="B105" s="4" t="n">
         <v>6.2</v>
@@ -1713,10 +1715,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>36250</v>
+        <v>36341</v>
       </c>
       <c r="B106" s="4" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="C106">
         <f>(B106/B110-1)*100</f>
@@ -1725,10 +1727,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>36160</v>
+        <v>36250</v>
       </c>
       <c r="B107" s="4" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="C107">
         <f>(B107/B111-1)*100</f>
@@ -1737,10 +1739,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>36068</v>
+        <v>36160</v>
       </c>
       <c r="B108" s="4" t="n">
-        <v>5.29</v>
+        <v>6.02</v>
       </c>
       <c r="C108">
         <f>(B108/B112-1)*100</f>
@@ -1749,7 +1751,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>35976</v>
+        <v>36068</v>
       </c>
       <c r="B109" s="4" t="n">
         <v>5.29</v>
@@ -1761,10 +1763,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>35885</v>
+        <v>35976</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>6.02</v>
+        <v>5.29</v>
       </c>
       <c r="C110">
         <f>(B110/B114-1)*100</f>
@@ -1773,10 +1775,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>35795</v>
+        <v>35885</v>
       </c>
       <c r="B111" s="4" t="n">
-        <v>6.13</v>
+        <v>6.02</v>
       </c>
       <c r="C111">
         <f>(B111/B115-1)*100</f>
@@ -1785,10 +1787,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>35703</v>
+        <v>35795</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>6.54</v>
+        <v>6.13</v>
       </c>
       <c r="C112">
         <f>(B112/B116-1)*100</f>
@@ -1797,10 +1799,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>35611</v>
+        <v>35703</v>
       </c>
       <c r="B113" s="4" t="n">
-        <v>6.05</v>
+        <v>6.54</v>
       </c>
       <c r="C113">
         <f>(B113/B117-1)*100</f>
@@ -1809,10 +1811,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>35520</v>
+        <v>35611</v>
       </c>
       <c r="B114" s="4" t="n">
-        <v>6.279999999999999</v>
+        <v>6.05</v>
       </c>
       <c r="C114">
         <f>(B114/B118-1)*100</f>
@@ -1821,10 +1823,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>35430</v>
+        <v>35520</v>
       </c>
       <c r="B115" s="4" t="n">
-        <v>6.27</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="C115">
         <f>(B115/B119-1)*100</f>
@@ -1833,10 +1835,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>35338</v>
+        <v>35430</v>
       </c>
       <c r="B116" s="4" t="n">
-        <v>5.83</v>
+        <v>6.27</v>
       </c>
       <c r="C116">
         <f>(B116/B120-1)*100</f>
@@ -1845,10 +1847,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>35246</v>
+        <v>35338</v>
       </c>
       <c r="B117" s="4" t="n">
-        <v>5.96</v>
+        <v>5.83</v>
       </c>
       <c r="C117">
         <f>(B117/B121-1)*100</f>
@@ -1857,10 +1859,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>35155</v>
+        <v>35246</v>
       </c>
       <c r="B118" s="4" t="n">
-        <v>4.6</v>
+        <v>5.96</v>
       </c>
       <c r="C118">
         <f>(B118/B122-1)*100</f>
@@ -1869,10 +1871,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>35064</v>
+        <v>35155</v>
       </c>
       <c r="B119" s="4" t="n">
-        <v>4.26</v>
+        <v>4.6</v>
       </c>
       <c r="C119">
         <f>(B119/B123-1)*100</f>
@@ -1881,10 +1883,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>34972</v>
+        <v>35064</v>
       </c>
       <c r="B120" s="4" t="n">
-        <v>4.8</v>
+        <v>4.26</v>
       </c>
       <c r="C120">
         <f>(B120/B124-1)*100</f>
@@ -1893,10 +1895,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>34880</v>
+        <v>34972</v>
       </c>
       <c r="B121" s="4" t="n">
-        <v>4.61</v>
+        <v>4.8</v>
       </c>
       <c r="C121">
         <f>(B121/B125-1)*100</f>
@@ -1905,10 +1907,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>34789</v>
+        <v>34880</v>
       </c>
       <c r="B122" s="4" t="n">
-        <v>5.71</v>
+        <v>4.61</v>
       </c>
       <c r="C122">
         <f>(B122/B126-1)*100</f>
@@ -1917,10 +1919,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>34699</v>
+        <v>34789</v>
       </c>
       <c r="B123" s="4" t="n">
-        <v>6.3</v>
+        <v>5.71</v>
       </c>
       <c r="C123">
         <f>(B123/B127-1)*100</f>
@@ -1929,10 +1931,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>34607</v>
+        <v>34699</v>
       </c>
       <c r="B124" s="4" t="n">
-        <v>6.52</v>
+        <v>6.3</v>
       </c>
       <c r="C124">
         <f>(B124/B128-1)*100</f>
@@ -1941,10 +1943,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>34515</v>
+        <v>34607</v>
       </c>
       <c r="B125" s="4" t="n">
-        <v>6.43</v>
+        <v>6.52</v>
       </c>
       <c r="C125">
         <f>(B125/B129-1)*100</f>
@@ -1953,10 +1955,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>34424</v>
+        <v>34515</v>
       </c>
       <c r="B126" s="4" t="n">
-        <v>5.74</v>
+        <v>6.43</v>
       </c>
       <c r="C126">
         <f>(B126/B130-1)*100</f>
@@ -1965,10 +1967,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>34334</v>
+        <v>34424</v>
       </c>
       <c r="B127" s="4" t="n">
-        <v>4.98</v>
+        <v>5.74</v>
       </c>
       <c r="C127">
         <f>(B127/B131-1)*100</f>
@@ -1977,10 +1979,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>34242</v>
+        <v>34334</v>
       </c>
       <c r="B128" s="4" t="n">
-        <v>4.8</v>
+        <v>4.98</v>
       </c>
       <c r="C128">
         <f>(B128/B132-1)*100</f>
@@ -1989,10 +1991,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>34150</v>
+        <v>34242</v>
       </c>
       <c r="B129" s="4" t="n">
-        <v>5.23</v>
+        <v>4.8</v>
       </c>
       <c r="C129">
         <f>(B129/B133-1)*100</f>
@@ -2001,10 +2003,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>34059</v>
+        <v>34150</v>
       </c>
       <c r="B130" s="4" t="n">
-        <v>5.76</v>
+        <v>5.23</v>
       </c>
       <c r="C130">
         <f>(B130/B134-1)*100</f>
@@ -2013,10 +2015,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>33969</v>
+        <v>34059</v>
       </c>
       <c r="B131" s="4" t="n">
-        <v>6.65</v>
+        <v>5.76</v>
       </c>
       <c r="C131">
         <f>(B131/B135-1)*100</f>
@@ -2025,10 +2027,10 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>33877</v>
+        <v>33969</v>
       </c>
       <c r="B132" s="4" t="n">
-        <v>5.81</v>
+        <v>6.65</v>
       </c>
       <c r="C132">
         <f>(B132/B136-1)*100</f>
@@ -2037,10 +2039,10 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>33785</v>
+        <v>33877</v>
       </c>
       <c r="B133" s="4" t="n">
-        <v>5.609999999999999</v>
+        <v>5.81</v>
       </c>
       <c r="C133">
         <f>(B133/B137-1)*100</f>
@@ -2049,10 +2051,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>33694</v>
+        <v>33785</v>
       </c>
       <c r="B134" s="4" t="n">
-        <v>5.43</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="C134">
         <f>(B134/B138-1)*100</f>
@@ -2061,10 +2063,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>33603</v>
+        <v>33694</v>
       </c>
       <c r="B135" s="4" t="n">
-        <v>4.33</v>
+        <v>5.43</v>
       </c>
       <c r="C135">
         <f>(B135/B139-1)*100</f>
@@ -2073,10 +2075,10 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>33511</v>
+        <v>33603</v>
       </c>
       <c r="B136" s="4" t="n">
-        <v>3.17</v>
+        <v>4.33</v>
       </c>
       <c r="C136">
         <f>(B136/B140-1)*100</f>
@@ -2085,10 +2087,10 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>33419</v>
+        <v>33511</v>
       </c>
       <c r="B137" s="4" t="n">
-        <v>2.8</v>
+        <v>3.17</v>
       </c>
       <c r="C137">
         <f>(B137/B141-1)*100</f>
@@ -2097,10 +2099,10 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>33328</v>
+        <v>33419</v>
       </c>
       <c r="B138" s="4" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="C138">
         <f>(B138/B142-1)*100</f>
@@ -2109,10 +2111,10 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>33238</v>
+        <v>33328</v>
       </c>
       <c r="B139" s="4" t="n">
-        <v>4.48</v>
+        <v>2.77</v>
       </c>
       <c r="C139">
         <f>(B139/B143-1)*100</f>
@@ -2121,10 +2123,10 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>33146</v>
+        <v>33238</v>
       </c>
       <c r="B140" s="4" t="n">
-        <v>5.609999999999999</v>
+        <v>4.48</v>
       </c>
       <c r="C140">
         <f>(B140/B144-1)*100</f>
@@ -2133,10 +2135,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>33054</v>
+        <v>33146</v>
       </c>
       <c r="B141" s="4" t="n">
-        <v>6.19</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="C141">
         <f>(B141/B145-1)*100</f>
@@ -2145,10 +2147,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>32963</v>
+        <v>33054</v>
       </c>
       <c r="B142" s="4" t="n">
-        <v>6.56</v>
+        <v>6.19</v>
       </c>
       <c r="C142">
         <f>(B142/B146-1)*100</f>
@@ -2157,10 +2159,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>32873</v>
+        <v>32963</v>
       </c>
       <c r="B143" s="4" t="n">
-        <v>6.44</v>
+        <v>6.56</v>
       </c>
       <c r="C143">
         <f>(B143/B147-1)*100</f>
@@ -2169,10 +2171,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>32781</v>
+        <v>32873</v>
       </c>
       <c r="B144" s="4" t="n">
-        <v>7.81</v>
+        <v>6.44</v>
       </c>
       <c r="C144">
         <f>(B144/B148-1)*100</f>
@@ -2181,10 +2183,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>32689</v>
+        <v>32781</v>
       </c>
       <c r="B145" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="C145">
         <f>(B145/B149-1)*100</f>
@@ -2193,10 +2195,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>32598</v>
+        <v>32689</v>
       </c>
       <c r="B146" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C146">
         <f>(B146/B150-1)*100</f>
@@ -2205,10 +2207,10 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>32508</v>
+        <v>32598</v>
       </c>
       <c r="B147" s="4" t="n">
-        <v>7.82</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C147">
         <f>(B147/B151-1)*100</f>
@@ -2217,10 +2219,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>32416</v>
+        <v>32508</v>
       </c>
       <c r="B148" s="4" t="n">
-        <v>8.15</v>
+        <v>7.82</v>
       </c>
       <c r="C148">
         <f>(B148/B152-1)*100</f>
@@ -2229,10 +2231,10 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>32324</v>
+        <v>32416</v>
       </c>
       <c r="B149" s="4" t="n">
-        <v>7.99</v>
+        <v>8.15</v>
       </c>
       <c r="C149">
         <f>(B149/B153-1)*100</f>
@@ -2241,10 +2243,10 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>32233</v>
+        <v>32324</v>
       </c>
       <c r="B150" s="4" t="n">
-        <v>7.44</v>
+        <v>7.99</v>
       </c>
       <c r="C150">
         <f>(B150/B154-1)*100</f>
@@ -2253,10 +2255,10 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>32142</v>
+        <v>32233</v>
       </c>
       <c r="B151" s="4" t="n">
-        <v>7.52</v>
+        <v>7.44</v>
       </c>
       <c r="C151">
         <f>(B151/B155-1)*100</f>
@@ -2265,10 +2267,10 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>32050</v>
+        <v>32142</v>
       </c>
       <c r="B152" s="4" t="n">
-        <v>6.01</v>
+        <v>7.52</v>
       </c>
       <c r="C152">
         <f>(B152/B156-1)*100</f>
@@ -2277,10 +2279,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>31958</v>
+        <v>32050</v>
       </c>
       <c r="B153" s="4" t="n">
-        <v>5.74</v>
+        <v>6.01</v>
       </c>
       <c r="C153">
         <f>(B153/B157-1)*100</f>
@@ -2289,10 +2291,10 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>31867</v>
+        <v>31958</v>
       </c>
       <c r="B154" s="4" t="n">
-        <v>4.75</v>
+        <v>5.74</v>
       </c>
       <c r="C154">
         <f>(B154/B158-1)*100</f>
@@ -2301,10 +2303,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>31777</v>
+        <v>31867</v>
       </c>
       <c r="B155" s="4" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="C155">
         <f>(B155/B159-1)*100</f>
@@ -2313,10 +2315,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>31685</v>
+        <v>31777</v>
       </c>
       <c r="B156" s="4" t="n">
-        <v>5.04</v>
+        <v>4.8</v>
       </c>
       <c r="C156">
         <f>(B156/B160-1)*100</f>
@@ -2325,10 +2327,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>31593</v>
+        <v>31685</v>
       </c>
       <c r="B157" s="4" t="n">
-        <v>5.83</v>
+        <v>5.04</v>
       </c>
       <c r="C157">
         <f>(B157/B161-1)*100</f>
@@ -2337,10 +2339,10 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>31502</v>
+        <v>31593</v>
       </c>
       <c r="B158" s="4" t="n">
-        <v>6.56</v>
+        <v>5.83</v>
       </c>
       <c r="C158">
         <f>(B158/B162-1)*100</f>
@@ -2349,10 +2351,10 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>31412</v>
+        <v>31502</v>
       </c>
       <c r="B159" s="4" t="n">
-        <v>7.12</v>
+        <v>6.56</v>
       </c>
       <c r="C159">
         <f>(B159/B163-1)*100</f>
@@ -2361,10 +2363,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>31320</v>
+        <v>31412</v>
       </c>
       <c r="B160" s="4" t="n">
-        <v>7.41</v>
+        <v>7.12</v>
       </c>
       <c r="C160">
         <f>(B160/B164-1)*100</f>
@@ -2373,10 +2375,10 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>31228</v>
+        <v>31320</v>
       </c>
       <c r="B161" s="4" t="n">
-        <v>7.12</v>
+        <v>7.41</v>
       </c>
       <c r="C161">
         <f>(B161/B165-1)*100</f>
@@ -2385,10 +2387,10 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>31137</v>
+        <v>31228</v>
       </c>
       <c r="B162" s="4" t="n">
-        <v>8.24</v>
+        <v>7.12</v>
       </c>
       <c r="C162">
         <f>(B162/B166-1)*100</f>
@@ -2397,10 +2399,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>31047</v>
+        <v>31137</v>
       </c>
       <c r="B163" s="4" t="n">
-        <v>9.33</v>
+        <v>8.24</v>
       </c>
       <c r="C163">
         <f>(B163/B167-1)*100</f>
@@ -2409,10 +2411,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>30955</v>
+        <v>31047</v>
       </c>
       <c r="B164" s="4" t="n">
-        <v>10.71</v>
+        <v>9.33</v>
       </c>
       <c r="C164">
         <f>(B164/B168-1)*100</f>
@@ -2421,10 +2423,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>30863</v>
+        <v>30955</v>
       </c>
       <c r="B165" s="4" t="n">
-        <v>12.04</v>
+        <v>10.71</v>
       </c>
       <c r="C165">
         <f>(B165/B169-1)*100</f>
@@ -2433,10 +2435,10 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>30772</v>
+        <v>30863</v>
       </c>
       <c r="B166" s="4" t="n">
-        <v>12.52</v>
+        <v>12.04</v>
       </c>
       <c r="C166">
         <f>(B166/B170-1)*100</f>
@@ -2445,10 +2447,10 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>30681</v>
+        <v>30772</v>
       </c>
       <c r="B167" s="4" t="n">
-        <v>11.52</v>
+        <v>12.52</v>
       </c>
       <c r="C167">
         <f>(B167/B171-1)*100</f>
@@ -2457,10 +2459,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>30589</v>
+        <v>30681</v>
       </c>
       <c r="B168" s="4" t="n">
-        <v>9.59</v>
+        <v>11.52</v>
       </c>
       <c r="C168">
         <f>(B168/B172-1)*100</f>
@@ -2469,10 +2471,10 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>30497</v>
+        <v>30589</v>
       </c>
       <c r="B169" s="4" t="n">
-        <v>7.41</v>
+        <v>9.59</v>
       </c>
       <c r="C169">
         <f>(B169/B173-1)*100</f>
@@ -2481,10 +2483,10 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>30406</v>
+        <v>30497</v>
       </c>
       <c r="B170" s="4" t="n">
-        <v>6.08</v>
+        <v>7.41</v>
       </c>
       <c r="C170">
         <f>(B170/B174-1)*100</f>
@@ -2493,10 +2495,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>30316</v>
+        <v>30406</v>
       </c>
       <c r="B171" s="4" t="n">
-        <v>3.71</v>
+        <v>6.08</v>
       </c>
       <c r="C171">
         <f>(B171/B175-1)*100</f>
@@ -2505,10 +2507,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>30224</v>
+        <v>30316</v>
       </c>
       <c r="B172" s="4" t="n">
-        <v>3.24</v>
+        <v>3.71</v>
       </c>
       <c r="C172">
         <f>(B172/B176-1)*100</f>
@@ -2517,10 +2519,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>30132</v>
+        <v>30224</v>
       </c>
       <c r="B173" s="4" t="n">
-        <v>5.36</v>
+        <v>3.24</v>
       </c>
       <c r="C173">
         <f>(B173/B177-1)*100</f>
@@ -2529,10 +2531,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>30041</v>
+        <v>30132</v>
       </c>
       <c r="B174" s="4" t="n">
-        <v>4.8</v>
+        <v>5.36</v>
       </c>
       <c r="C174">
         <f>(B174/B178-1)*100</f>
@@ -2541,10 +2543,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>29951</v>
+        <v>30041</v>
       </c>
       <c r="B175" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="C175">
         <f>(B175/B179-1)*100</f>
@@ -2553,10 +2555,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>29859</v>
+        <v>29951</v>
       </c>
       <c r="B176" s="4" t="n">
-        <v>14.15</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C176">
         <f>(B176/B180-1)*100</f>
@@ -2565,10 +2567,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>29767</v>
+        <v>29859</v>
       </c>
       <c r="B177" s="4" t="n">
-        <v>13.05</v>
+        <v>14.15</v>
       </c>
       <c r="C177">
         <f>(B177/B181-1)*100</f>
@@ -2577,10 +2579,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>29676</v>
+        <v>29767</v>
       </c>
       <c r="B178" s="4" t="n">
-        <v>11.99</v>
+        <v>13.05</v>
       </c>
       <c r="C178">
         <f>(B178/B182-1)*100</f>
@@ -2589,10 +2591,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>29586</v>
+        <v>29676</v>
       </c>
       <c r="B179" s="4" t="n">
-        <v>9.610000000000001</v>
+        <v>11.99</v>
       </c>
       <c r="C179">
         <f>(B179/B183-1)*100</f>
@@ -2601,10 +2603,10 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>29494</v>
+        <v>29586</v>
       </c>
       <c r="B180" s="4" t="n">
-        <v>7.08</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="C180">
         <f>(B180/B184-1)*100</f>
@@ -2613,10 +2615,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>29402</v>
+        <v>29494</v>
       </c>
       <c r="B181" s="4" t="n">
-        <v>7.960000000000001</v>
+        <v>7.08</v>
       </c>
       <c r="C181">
         <f>(B181/B185-1)*100</f>
@@ -2625,10 +2627,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>29311</v>
+        <v>29402</v>
       </c>
       <c r="B182" s="4" t="n">
-        <v>10.42</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="C182">
         <f>(B182/B186-1)*100</f>
@@ -2637,10 +2639,10 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>29220</v>
+        <v>29311</v>
       </c>
       <c r="B183" s="4" t="n">
-        <v>9.969999999999999</v>
+        <v>10.42</v>
       </c>
       <c r="C183">
         <f>(B183/B187-1)*100</f>
@@ -2649,10 +2651,10 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>29128</v>
+        <v>29220</v>
       </c>
       <c r="B184" s="4" t="n">
-        <v>11.38</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="C184">
         <f>(B184/B188-1)*100</f>
@@ -2661,10 +2663,10 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>29036</v>
+        <v>29128</v>
       </c>
       <c r="B185" s="4" t="n">
-        <v>11.13</v>
+        <v>11.38</v>
       </c>
       <c r="C185">
         <f>(B185/B189-1)*100</f>
@@ -2673,10 +2675,10 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>28945</v>
+        <v>29036</v>
       </c>
       <c r="B186" s="4" t="n">
-        <v>14.7</v>
+        <v>11.13</v>
       </c>
       <c r="C186">
         <f>(B186/B190-1)*100</f>
@@ -2685,10 +2687,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>28855</v>
+        <v>28945</v>
       </c>
       <c r="B187" s="4" t="n">
-        <v>14.44</v>
+        <v>14.7</v>
       </c>
       <c r="C187">
         <f>(B187/B191-1)*100</f>
@@ -2697,10 +2699,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>28763</v>
+        <v>28855</v>
       </c>
       <c r="B188" s="4" t="n">
-        <v>13.06</v>
+        <v>14.44</v>
       </c>
       <c r="C188">
         <f>(B188/B192-1)*100</f>
@@ -2709,10 +2711,10 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>28671</v>
+        <v>28763</v>
       </c>
       <c r="B189" s="4" t="n">
-        <v>13.41</v>
+        <v>13.06</v>
       </c>
       <c r="C189">
         <f>(B189/B193-1)*100</f>
@@ -2721,10 +2723,10 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>28580</v>
+        <v>28671</v>
       </c>
       <c r="B190" s="4" t="n">
-        <v>10.77</v>
+        <v>13.41</v>
       </c>
       <c r="C190">
         <f>(B190/B194-1)*100</f>
@@ -2733,10 +2735,10 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>28490</v>
+        <v>28580</v>
       </c>
       <c r="B191" s="4" t="n">
-        <v>11.89</v>
+        <v>10.77</v>
       </c>
       <c r="C191">
         <f>(B191/B195-1)*100</f>
@@ -2745,10 +2747,10 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>28398</v>
+        <v>28490</v>
       </c>
       <c r="B192" s="4" t="n">
-        <v>12.29</v>
+        <v>11.89</v>
       </c>
       <c r="C192">
         <f>(B192/B196-1)*100</f>
@@ -2757,10 +2759,10 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>28306</v>
+        <v>28398</v>
       </c>
       <c r="B193" s="4" t="n">
-        <v>10.99</v>
+        <v>12.29</v>
       </c>
       <c r="C193">
         <f>(B193/B197-1)*100</f>
@@ -2769,10 +2771,10 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>28215</v>
+        <v>28306</v>
       </c>
       <c r="B194" s="4" t="n">
-        <v>9.229999999999999</v>
+        <v>10.99</v>
       </c>
       <c r="C194">
         <f>(B194/B198-1)*100</f>
@@ -2781,10 +2783,10 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>28125</v>
+        <v>28215</v>
       </c>
       <c r="B195" s="4" t="n">
-        <v>9.790000000000001</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="C195">
         <f>(B195/B199-1)*100</f>
@@ -2793,10 +2795,10 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>28033</v>
+        <v>28125</v>
       </c>
       <c r="B196" s="4" t="n">
-        <v>10.34</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="C196">
         <f>(B196/B200-1)*100</f>
@@ -2805,10 +2807,10 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>27941</v>
+        <v>28033</v>
       </c>
       <c r="B197" s="4" t="n">
-        <v>12.13</v>
+        <v>10.34</v>
       </c>
       <c r="C197">
         <f>(B197/B201-1)*100</f>
@@ -2817,10 +2819,10 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>27850</v>
+        <v>27941</v>
       </c>
       <c r="B198" s="4" t="n">
-        <v>12.65</v>
+        <v>12.13</v>
       </c>
       <c r="C198">
         <f>(B198/B202-1)*100</f>
@@ -2829,10 +2831,10 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>27759</v>
+        <v>27850</v>
       </c>
       <c r="B199" s="4" t="n">
-        <v>10.13</v>
+        <v>12.65</v>
       </c>
       <c r="C199">
         <f>(B199/B203-1)*100</f>
@@ -2841,10 +2843,10 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>27667</v>
+        <v>27759</v>
       </c>
       <c r="B200" s="4" t="n">
-        <v>9.6</v>
+        <v>10.13</v>
       </c>
       <c r="C200">
         <f>(B200/B204-1)*100</f>
@@ -2853,10 +2855,10 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>27575</v>
+        <v>27667</v>
       </c>
       <c r="B201" s="4" t="n">
-        <v>7.960000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="C201">
         <f>(B201/B205-1)*100</f>
@@ -2865,10 +2867,10 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>27484</v>
+        <v>27575</v>
       </c>
       <c r="B202" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="C202">
         <f>(B202/B206-1)*100</f>
@@ -2877,10 +2879,10 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>27394</v>
+        <v>27484</v>
       </c>
       <c r="B203" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C203">
         <f>(B203/B207-1)*100</f>
@@ -2889,10 +2891,10 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>27302</v>
+        <v>27394</v>
       </c>
       <c r="B204" s="4" t="n">
-        <v>8.799999999999999</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C204">
         <f>(B204/B208-1)*100</f>
@@ -2901,10 +2903,10 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>27210</v>
+        <v>27302</v>
       </c>
       <c r="B205" s="4" t="n">
-        <v>8.219999999999999</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="C205">
         <f>(B205/B209-1)*100</f>
@@ -2913,10 +2915,10 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>27119</v>
+        <v>27210</v>
       </c>
       <c r="B206" s="4" t="n">
-        <v>8.25</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="C206">
         <f>(B206/B210-1)*100</f>
@@ -2925,10 +2927,10 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>27029</v>
+        <v>27119</v>
       </c>
       <c r="B207" s="4" t="n">
-        <v>11.09</v>
+        <v>8.25</v>
       </c>
       <c r="C207">
         <f>(B207/B211-1)*100</f>
@@ -2937,10 +2939,10 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>26937</v>
+        <v>27029</v>
       </c>
       <c r="B208" s="4" t="n">
-        <v>11.1</v>
+        <v>11.09</v>
       </c>
       <c r="C208">
         <f>(B208/B212-1)*100</f>
@@ -2949,10 +2951,10 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>26845</v>
+        <v>26937</v>
       </c>
       <c r="B209" s="4" t="n">
-        <v>11.65</v>
+        <v>11.1</v>
       </c>
       <c r="C209">
         <f>(B209/B213-1)*100</f>
@@ -2961,10 +2963,10 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>26754</v>
+        <v>26845</v>
       </c>
       <c r="B210" s="4" t="n">
-        <v>11.94</v>
+        <v>11.65</v>
       </c>
       <c r="C210">
         <f>(B210/B214-1)*100</f>
@@ -2973,10 +2975,10 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>26664</v>
+        <v>26754</v>
       </c>
       <c r="B211" s="4" t="n">
-        <v>11.64</v>
+        <v>11.94</v>
       </c>
       <c r="C211">
         <f>(B211/B215-1)*100</f>
@@ -2985,10 +2987,10 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>26572</v>
+        <v>26664</v>
       </c>
       <c r="B212" s="4" t="n">
-        <v>9.59</v>
+        <v>11.64</v>
       </c>
       <c r="C212">
         <f>(B212/B216-1)*100</f>
@@ -2997,10 +2999,10 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>26480</v>
+        <v>26572</v>
       </c>
       <c r="B213" s="4" t="n">
-        <v>9.520000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="C213">
         <f>(B213/B217-1)*100</f>
@@ -3009,10 +3011,10 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>26389</v>
+        <v>26480</v>
       </c>
       <c r="B214" s="4" t="n">
-        <v>8.4</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="C214">
         <f>(B214/B218-1)*100</f>
@@ -3021,10 +3023,10 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>26298</v>
+        <v>26389</v>
       </c>
       <c r="B215" s="4" t="n">
-        <v>9.34</v>
+        <v>8.4</v>
       </c>
       <c r="C215">
         <f>(B215/B219-1)*100</f>
@@ -3033,10 +3035,10 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>26206</v>
+        <v>26298</v>
       </c>
       <c r="B216" s="4" t="n">
-        <v>8.43</v>
+        <v>9.34</v>
       </c>
       <c r="C216">
         <f>(B216/B220-1)*100</f>
@@ -3045,10 +3047,10 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>26114</v>
+        <v>26206</v>
       </c>
       <c r="B217" s="4" t="n">
-        <v>8.33</v>
+        <v>8.43</v>
       </c>
       <c r="C217">
         <f>(B217/B221-1)*100</f>
@@ -3057,10 +3059,10 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>26023</v>
+        <v>26114</v>
       </c>
       <c r="B218" s="4" t="n">
-        <v>7.99</v>
+        <v>8.33</v>
       </c>
       <c r="C218">
         <f>(B218/B222-1)*100</f>
@@ -3069,10 +3071,10 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>25933</v>
+        <v>26023</v>
       </c>
       <c r="B219" s="4" t="n">
-        <v>4.859999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="C219">
         <f>(B219/B223-1)*100</f>
@@ -3081,10 +3083,10 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>25841</v>
+        <v>25933</v>
       </c>
       <c r="B220" s="4" t="n">
-        <v>5.45</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="C220">
         <f>(B220/B224-1)*100</f>
@@ -3093,10 +3095,10 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>25749</v>
+        <v>25841</v>
       </c>
       <c r="B221" s="4" t="n">
-        <v>5.79</v>
+        <v>5.45</v>
       </c>
       <c r="C221">
         <f>(B221/B225-1)*100</f>
@@ -3105,10 +3107,10 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>25658</v>
+        <v>25749</v>
       </c>
       <c r="B222" s="4" t="n">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
       <c r="C222">
         <f>(B222/B226-1)*100</f>
@@ -3117,10 +3119,10 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>25568</v>
+        <v>25658</v>
       </c>
       <c r="B223" s="4" t="n">
-        <v>7.24</v>
+        <v>5.83</v>
       </c>
       <c r="C223">
         <f>(B223/B227-1)*100</f>
@@ -3129,10 +3131,10 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>25476</v>
+        <v>25568</v>
       </c>
       <c r="B224" s="4" t="n">
-        <v>8.33</v>
+        <v>7.24</v>
       </c>
       <c r="C224">
         <f>(B224/B228-1)*100</f>
@@ -3141,10 +3143,10 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>25384</v>
+        <v>25476</v>
       </c>
       <c r="B225" s="4" t="n">
-        <v>8</v>
+        <v>8.33</v>
       </c>
       <c r="C225">
         <f>(B225/B229-1)*100</f>
@@ -3153,10 +3155,10 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>25293</v>
+        <v>25384</v>
       </c>
       <c r="B226" s="4" t="n">
-        <v>9.229999999999999</v>
+        <v>8</v>
       </c>
       <c r="C226">
         <f>(B226/B230-1)*100</f>
@@ -3165,10 +3167,10 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>25203</v>
+        <v>25293</v>
       </c>
       <c r="B227" s="4" t="n">
-        <v>9.83</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="C227">
         <f>(B227/B231-1)*100</f>
@@ -3177,10 +3179,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>25111</v>
+        <v>25203</v>
       </c>
       <c r="B228" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="C228">
         <f>(B228/B232-1)*100</f>
@@ -3189,10 +3191,10 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>25019</v>
+        <v>25111</v>
       </c>
       <c r="B229" s="4" t="n">
-        <v>10.05</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C229">
         <f>(B229/B233-1)*100</f>
@@ -3201,10 +3203,10 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>24928</v>
+        <v>25019</v>
       </c>
       <c r="B230" s="4" t="n">
-        <v>7.720000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="C230">
         <f>(B230/B234-1)*100</f>
@@ -3213,10 +3215,10 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>24837</v>
+        <v>24928</v>
       </c>
       <c r="B231" s="4" t="n">
-        <v>5.77</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="C231">
         <f>(B231/B235-1)*100</f>
@@ -3225,10 +3227,10 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>24745</v>
+        <v>24837</v>
       </c>
       <c r="B232" s="4" t="n">
-        <v>5.56</v>
+        <v>5.77</v>
       </c>
       <c r="C232">
         <f>(B232/B236-1)*100</f>
@@ -3237,10 +3239,10 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>24653</v>
+        <v>24745</v>
       </c>
       <c r="B233" s="4" t="n">
-        <v>5.47</v>
+        <v>5.56</v>
       </c>
       <c r="C233">
         <f>(B233/B237-1)*100</f>
@@ -3249,10 +3251,10 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>24562</v>
+        <v>24653</v>
       </c>
       <c r="B234" s="4" t="n">
-        <v>6.1</v>
+        <v>5.47</v>
       </c>
       <c r="C234">
         <f>(B234/B238-1)*100</f>
@@ -3261,10 +3263,10 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>24472</v>
+        <v>24562</v>
       </c>
       <c r="B235" s="4" t="n">
-        <v>7.95</v>
+        <v>6.1</v>
       </c>
       <c r="C235">
         <f>(B235/B239-1)*100</f>
@@ -3273,10 +3275,10 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>24380</v>
+        <v>24472</v>
       </c>
       <c r="B236" s="4" t="n">
-        <v>9.379999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="C236">
         <f>(B236/B240-1)*100</f>
@@ -3285,10 +3287,10 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>24288</v>
+        <v>24380</v>
       </c>
       <c r="B237" s="4" t="n">
-        <v>10.24</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="C237">
         <f>(B237/B241-1)*100</f>
@@ -3297,10 +3299,10 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>24197</v>
+        <v>24288</v>
       </c>
       <c r="B238" s="4" t="n">
-        <v>10.85</v>
+        <v>10.24</v>
       </c>
       <c r="C238">
         <f>(B238/B242-1)*100</f>
@@ -3309,10 +3311,10 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>24107</v>
+        <v>24197</v>
       </c>
       <c r="B239" s="4" t="n">
-        <v>10.7</v>
+        <v>10.85</v>
       </c>
       <c r="C239">
         <f>(B239/B243-1)*100</f>
@@ -3321,10 +3323,10 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>24015</v>
+        <v>24107</v>
       </c>
       <c r="B240" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C240">
         <f>(B240/B244-1)*100</f>
@@ -3333,10 +3335,10 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>23923</v>
+        <v>24015</v>
       </c>
       <c r="B241" s="4" t="n">
-        <v>7.59</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C241">
         <f>(B241/B245-1)*100</f>
@@ -3345,10 +3347,10 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>23832</v>
+        <v>23923</v>
       </c>
       <c r="B242" s="4" t="n">
-        <v>7.17</v>
+        <v>7.59</v>
       </c>
       <c r="C242">
         <f>(B242/B246-1)*100</f>
@@ -3357,10 +3359,10 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>23742</v>
+        <v>23832</v>
       </c>
       <c r="B243" s="4" t="n">
-        <v>6.64</v>
+        <v>7.17</v>
       </c>
       <c r="C243">
         <f>(B243/B247-1)*100</f>
@@ -3369,10 +3371,10 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>23650</v>
+        <v>23742</v>
       </c>
       <c r="B244" s="4" t="n">
-        <v>7.39</v>
+        <v>6.64</v>
       </c>
       <c r="C244">
         <f>(B244/B248-1)*100</f>
@@ -3381,10 +3383,10 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>23558</v>
+        <v>23650</v>
       </c>
       <c r="B245" s="4" t="n">
-        <v>7.76</v>
+        <v>7.39</v>
       </c>
       <c r="C245">
         <f>(B245/B249-1)*100</f>
@@ -3393,10 +3395,10 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>23467</v>
+        <v>23558</v>
       </c>
       <c r="B246" s="4" t="n">
-        <v>7.739999999999999</v>
+        <v>7.76</v>
       </c>
       <c r="C246">
         <f>(B246/B250-1)*100</f>
@@ -3405,10 +3407,10 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>23376</v>
+        <v>23467</v>
       </c>
       <c r="B247" s="4" t="n">
-        <v>6.79</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="C247">
         <f>(B247/B251-1)*100</f>
@@ -3417,10 +3419,10 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>23284</v>
+        <v>23376</v>
       </c>
       <c r="B248" s="4" t="n">
-        <v>5.81</v>
+        <v>6.79</v>
       </c>
       <c r="C248">
         <f>(B248/B252-1)*100</f>
@@ -3429,10 +3431,10 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>23192</v>
+        <v>23284</v>
       </c>
       <c r="B249" s="4" t="n">
-        <v>4.9</v>
+        <v>5.81</v>
       </c>
       <c r="C249">
         <f>(B249/B253-1)*100</f>
@@ -3441,10 +3443,10 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>23101</v>
+        <v>23192</v>
       </c>
       <c r="B250" s="4" t="n">
-        <v>4.66</v>
+        <v>4.9</v>
       </c>
       <c r="C250">
         <f>(B250/B254-1)*100</f>
@@ -3453,10 +3455,10 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>23011</v>
+        <v>23101</v>
       </c>
       <c r="B251" s="4" t="n">
-        <v>5.46</v>
+        <v>4.66</v>
       </c>
       <c r="C251">
         <f>(B251/B255-1)*100</f>
@@ -3465,10 +3467,10 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>22919</v>
+        <v>23011</v>
       </c>
       <c r="B252" s="4" t="n">
-        <v>7.27</v>
+        <v>5.46</v>
       </c>
       <c r="C252">
         <f>(B252/B256-1)*100</f>
@@ -3477,10 +3479,10 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>22827</v>
+        <v>22919</v>
       </c>
       <c r="B253" s="4" t="n">
-        <v>8.08</v>
+        <v>7.27</v>
       </c>
       <c r="C253">
         <f>(B253/B257-1)*100</f>
@@ -3489,10 +3491,10 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>22736</v>
+        <v>22827</v>
       </c>
       <c r="B254" s="4" t="n">
-        <v>8.99</v>
+        <v>8.08</v>
       </c>
       <c r="C254">
         <f>(B254/B258-1)*100</f>
@@ -3501,10 +3503,10 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>22646</v>
+        <v>22736</v>
       </c>
       <c r="B255" s="4" t="n">
-        <v>7.48</v>
+        <v>8.99</v>
       </c>
       <c r="C255">
         <f>(B255/B259-1)*100</f>
@@ -3513,10 +3515,10 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>22554</v>
+        <v>22646</v>
       </c>
       <c r="B256" s="4" t="n">
-        <v>4.05</v>
+        <v>7.48</v>
       </c>
       <c r="C256">
         <f>(B256/B260-1)*100</f>
@@ -3525,10 +3527,10 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>22462</v>
+        <v>22554</v>
       </c>
       <c r="B257" s="4" t="n">
-        <v>2.66</v>
+        <v>4.05</v>
       </c>
       <c r="C257">
         <f>(B257/B261-1)*100</f>
@@ -3537,10 +3539,10 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>22371</v>
+        <v>22462</v>
       </c>
       <c r="B258" s="4" t="n">
-        <v>0.44</v>
+        <v>2.66</v>
       </c>
       <c r="C258">
         <f>(B258/B262-1)*100</f>
@@ -3549,10 +3551,10 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>22281</v>
+        <v>22371</v>
       </c>
       <c r="B259" s="4" t="n">
-        <v>2.19</v>
+        <v>0.44</v>
       </c>
       <c r="C259">
         <f>(B259/B263-1)*100</f>
@@ -3561,10 +3563,10 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>22189</v>
+        <v>22281</v>
       </c>
       <c r="B260" s="4" t="n">
-        <v>3.92</v>
+        <v>2.19</v>
       </c>
       <c r="C260">
         <f>(B260/B264-1)*100</f>
@@ -3573,10 +3575,10 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>22097</v>
+        <v>22189</v>
       </c>
       <c r="B261" s="4" t="n">
-        <v>3.52</v>
+        <v>3.92</v>
       </c>
       <c r="C261">
         <f>(B261/B265-1)*100</f>
@@ -3585,10 +3587,10 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>22006</v>
+        <v>22097</v>
       </c>
       <c r="B262" s="4" t="n">
-        <v>6.329999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="C262">
         <f>(B262/B266-1)*100</f>
@@ -3597,10 +3599,10 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>21915</v>
+        <v>22006</v>
       </c>
       <c r="B263" s="4" t="n">
-        <v>5.800000000000001</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="C263">
         <f>(B263/B267-1)*100</f>
@@ -3609,10 +3611,10 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>21823</v>
+        <v>21915</v>
       </c>
       <c r="B264" s="4" t="n">
-        <v>8.07</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="C264">
         <f>(B264/B268-1)*100</f>
@@ -3621,10 +3623,10 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>21731</v>
+        <v>21823</v>
       </c>
       <c r="B265" s="4" t="n">
-        <v>10.74</v>
+        <v>8.07</v>
       </c>
       <c r="C265">
         <f>(B265/B269-1)*100</f>
@@ -3633,10 +3635,10 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>21640</v>
+        <v>21731</v>
       </c>
       <c r="B266" s="4" t="n">
-        <v>9.16</v>
+        <v>10.74</v>
       </c>
       <c r="C266">
         <f>(B266/B270-1)*100</f>
@@ -3645,10 +3647,10 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>21550</v>
+        <v>21640</v>
       </c>
       <c r="B267" s="4" t="n">
-        <v>5.2</v>
+        <v>9.16</v>
       </c>
       <c r="C267">
         <f>(B267/B271-1)*100</f>
@@ -3657,10 +3659,10 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>21458</v>
+        <v>21550</v>
       </c>
       <c r="B268" s="4" t="n">
-        <v>1.31</v>
+        <v>5.2</v>
       </c>
       <c r="C268">
         <f>(B268/B272-1)*100</f>
@@ -3669,10 +3671,10 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>21366</v>
+        <v>21458</v>
       </c>
       <c r="B269" s="4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="C269">
         <f>(B269/B273-1)*100</f>
@@ -3681,10 +3683,10 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>21275</v>
+        <v>21366</v>
       </c>
       <c r="B270" s="4" t="n">
-        <v>-0.49</v>
+        <v>0</v>
       </c>
       <c r="C270">
         <f>(B270/B274-1)*100</f>
@@ -3693,10 +3695,10 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>21185</v>
+        <v>21275</v>
       </c>
       <c r="B271" s="4" t="n">
-        <v>3.13</v>
+        <v>-0.49</v>
       </c>
       <c r="C271">
         <f>(B271/B275-1)*100</f>
@@ -3705,10 +3707,10 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>21093</v>
+        <v>21185</v>
       </c>
       <c r="B272" s="4" t="n">
-        <v>6.27</v>
+        <v>3.13</v>
       </c>
       <c r="C272">
         <f>(B272/B276-1)*100</f>
@@ -3717,10 +3719,10 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>21001</v>
+        <v>21093</v>
       </c>
       <c r="B273" s="4" t="n">
-        <v>5.83</v>
+        <v>6.27</v>
       </c>
       <c r="C273">
         <f>(B273/B277-1)*100</f>
@@ -3729,10 +3731,10 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>20910</v>
+        <v>21001</v>
       </c>
       <c r="B274" s="4" t="n">
-        <v>6.850000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="C274">
         <f>(B274/B278-1)*100</f>
@@ -3741,10 +3743,10 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>20820</v>
+        <v>20910</v>
       </c>
       <c r="B275" s="4" t="n">
-        <v>5.35</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="C275">
         <f>(B275/B279-1)*100</f>
@@ -3753,10 +3755,10 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>20728</v>
+        <v>20820</v>
       </c>
       <c r="B276" s="4" t="n">
-        <v>4.88</v>
+        <v>5.35</v>
       </c>
       <c r="C276">
         <f>(B276/B280-1)*100</f>
@@ -3765,10 +3767,10 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>20636</v>
+        <v>20728</v>
       </c>
       <c r="B277" s="4" t="n">
-        <v>5.81</v>
+        <v>4.88</v>
       </c>
       <c r="C277">
         <f>(B277/B281-1)*100</f>
@@ -3777,10 +3779,10 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>20545</v>
+        <v>20636</v>
       </c>
       <c r="B278" s="4" t="n">
-        <v>6.44</v>
+        <v>5.81</v>
       </c>
       <c r="C278">
         <f>(B278/B282-1)*100</f>
@@ -3789,10 +3791,10 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>20454</v>
+        <v>20545</v>
       </c>
       <c r="B279" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="C279">
         <f>(B279/B283-1)*100</f>
@@ -3801,10 +3803,10 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>20362</v>
+        <v>20454</v>
       </c>
       <c r="B280" s="4" t="n">
-        <v>10.03</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C280">
         <f>(B280/B284-1)*100</f>
@@ -3813,10 +3815,10 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>20270</v>
+        <v>20362</v>
       </c>
       <c r="B281" s="4" t="n">
-        <v>9.17</v>
+        <v>10.03</v>
       </c>
       <c r="C281">
         <f>(B281/B285-1)*100</f>
@@ -3825,10 +3827,10 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>20179</v>
+        <v>20270</v>
       </c>
       <c r="B282" s="4" t="n">
-        <v>7.22</v>
+        <v>9.17</v>
       </c>
       <c r="C282">
         <f>(B282/B286-1)*100</f>
@@ -3837,10 +3839,10 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>20089</v>
+        <v>20179</v>
       </c>
       <c r="B283" s="4" t="n">
-        <v>3.55</v>
+        <v>7.22</v>
       </c>
       <c r="C283">
         <f>(B283/B287-1)*100</f>
@@ -3849,10 +3851,10 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>19997</v>
+        <v>20089</v>
       </c>
       <c r="B284" s="4" t="n">
-        <v>-0.05</v>
+        <v>3.55</v>
       </c>
       <c r="C284">
         <f>(B284/B288-1)*100</f>
@@ -3861,10 +3863,10 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>19905</v>
+        <v>19997</v>
       </c>
       <c r="B285" s="4" t="n">
-        <v>-1.43</v>
+        <v>-0.05</v>
       </c>
       <c r="C285">
         <f>(B285/B289-1)*100</f>
@@ -3873,10 +3875,10 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>19814</v>
+        <v>19905</v>
       </c>
       <c r="B286" s="4" t="n">
-        <v>-0.7000000000000001</v>
+        <v>-1.43</v>
       </c>
       <c r="C286">
         <f>(B286/B290-1)*100</f>
@@ -3885,10 +3887,10 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>19724</v>
+        <v>19814</v>
       </c>
       <c r="B287" s="4" t="n">
-        <v>1.37</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="C287">
         <f>(B287/B291-1)*100</f>
@@ -3897,10 +3899,10 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>19632</v>
+        <v>19724</v>
       </c>
       <c r="B288" s="4" t="n">
-        <v>6.39</v>
+        <v>1.37</v>
       </c>
       <c r="C288">
         <f>(B288/B292-1)*100</f>
@@ -3909,10 +3911,10 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>19540</v>
+        <v>19632</v>
       </c>
       <c r="B289" s="4" t="n">
-        <v>8.5</v>
+        <v>6.39</v>
       </c>
       <c r="C289">
         <f>(B289/B293-1)*100</f>
@@ -3921,10 +3923,10 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>19449</v>
+        <v>19540</v>
       </c>
       <c r="B290" s="4" t="n">
-        <v>7.84</v>
+        <v>8.5</v>
       </c>
       <c r="C290">
         <f>(B290/B294-1)*100</f>
@@ -3933,10 +3935,10 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>19359</v>
+        <v>19449</v>
       </c>
       <c r="B291" s="4" t="n">
-        <v>6.909999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="C291">
         <f>(B291/B295-1)*100</f>
@@ -3945,10 +3947,10 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>19267</v>
+        <v>19359</v>
       </c>
       <c r="B292" s="4" t="n">
-        <v>4.64</v>
+        <v>6.909999999999999</v>
       </c>
       <c r="C292">
         <f>(B292/B296-1)*100</f>
@@ -3957,10 +3959,10 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>19175</v>
+        <v>19267</v>
       </c>
       <c r="B293" s="4" t="n">
-        <v>4.91</v>
+        <v>4.64</v>
       </c>
       <c r="C293">
         <f>(B293/B297-1)*100</f>
@@ -3969,10 +3971,10 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>19084</v>
+        <v>19175</v>
       </c>
       <c r="B294" s="4" t="n">
-        <v>7.08</v>
+        <v>4.91</v>
       </c>
       <c r="C294">
         <f>(B294/B298-1)*100</f>
@@ -3981,10 +3983,10 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>18993</v>
+        <v>19084</v>
       </c>
       <c r="B295" s="4" t="n">
-        <v>11.35</v>
+        <v>7.08</v>
       </c>
       <c r="C295">
         <f>(B295/B299-1)*100</f>
@@ -3993,10 +3995,10 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>18901</v>
+        <v>18993</v>
       </c>
       <c r="B296" s="4" t="n">
-        <v>14.02</v>
+        <v>11.35</v>
       </c>
       <c r="C296">
         <f>(B296/B300-1)*100</f>
@@ -4005,10 +4007,10 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>18809</v>
+        <v>18901</v>
       </c>
       <c r="B297" s="4" t="n">
-        <v>18.49</v>
+        <v>14.02</v>
       </c>
       <c r="C297">
         <f>(B297/B301-1)*100</f>
@@ -4017,10 +4019,10 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>18718</v>
+        <v>18809</v>
       </c>
       <c r="B298" s="4" t="n">
-        <v>19.66</v>
+        <v>18.49</v>
       </c>
       <c r="C298">
         <f>(B298/B302-1)*100</f>
@@ -4029,10 +4031,10 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>18628</v>
+        <v>18718</v>
       </c>
       <c r="B299" s="4" t="n">
-        <v>18.22</v>
+        <v>19.66</v>
       </c>
       <c r="C299">
         <f>(B299/B303-1)*100</f>
@@ -4041,10 +4043,10 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>18536</v>
+        <v>18628</v>
       </c>
       <c r="B300" s="4" t="n">
-        <v>12.94</v>
+        <v>18.22</v>
       </c>
       <c r="C300">
         <f>(B300/B304-1)*100</f>
@@ -4053,10 +4055,10 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>18444</v>
+        <v>18536</v>
       </c>
       <c r="B301" s="4" t="n">
-        <v>7.000000000000001</v>
+        <v>12.94</v>
       </c>
       <c r="C301">
         <f>(B301/B305-1)*100</f>
@@ -4065,10 +4067,10 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>18353</v>
+        <v>18444</v>
       </c>
       <c r="B302" s="4" t="n">
-        <v>2.11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C302">
         <f>(B302/B306-1)*100</f>
@@ -4077,10 +4079,10 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>18263</v>
+        <v>18353</v>
       </c>
       <c r="B303" s="4" t="n">
-        <v>-3.5</v>
+        <v>2.11</v>
       </c>
       <c r="C303">
         <f>(B303/B307-1)*100</f>
@@ -4089,10 +4091,10 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>18171</v>
+        <v>18263</v>
       </c>
       <c r="B304" s="4" t="n">
-        <v>-2.26</v>
+        <v>-3.5</v>
       </c>
       <c r="C304">
         <f>(B304/B308-1)*100</f>
@@ -4101,10 +4103,10 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>18079</v>
+        <v>18171</v>
       </c>
       <c r="B305" s="4" t="n">
-        <v>-0.44</v>
+        <v>-2.26</v>
       </c>
       <c r="C305">
         <f>(B305/B309-1)*100</f>
@@ -4113,10 +4115,10 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>17988</v>
+        <v>18079</v>
       </c>
       <c r="B306" s="4" t="n">
-        <v>3.5</v>
+        <v>-0.44</v>
       </c>
       <c r="C306">
         <f>(B306/B310-1)*100</f>
@@ -4125,10 +4127,10 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>17898</v>
+        <v>17988</v>
       </c>
       <c r="B307" s="4" t="n">
-        <v>7.969999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="C307">
         <f>(B307/B311-1)*100</f>
@@ -4137,10 +4139,10 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>17806</v>
+        <v>17898</v>
       </c>
       <c r="B308" s="4" t="n">
-        <v>11.86</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="C308">
         <f>(B308/B312-1)*100</f>
@@ -4149,10 +4151,10 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>17714</v>
+        <v>17806</v>
       </c>
       <c r="B309" s="4" t="n">
-        <v>10.81</v>
+        <v>11.86</v>
       </c>
       <c r="C309">
         <f>(B309/B313-1)*100</f>
@@ -4161,10 +4163,10 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>17623</v>
+        <v>17714</v>
       </c>
       <c r="B310" s="4" t="n">
-        <v>9.25</v>
+        <v>10.81</v>
       </c>
       <c r="C310">
         <f>(B310/B314-1)*100</f>
@@ -4173,13 +4175,25 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>17532</v>
+        <v>17623</v>
       </c>
       <c r="B311" s="4" t="n">
-        <v>14.15</v>
+        <v>9.25</v>
       </c>
       <c r="C311">
         <f>(B311/B315-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>17532</v>
+      </c>
+      <c r="B312" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="C312">
+        <f>(B312/B316-1)*100</f>
         <v/>
       </c>
     </row>
